--- a/TEA/BaseCases/BC_SMRCCU_Saudi_Arabia.xlsx
+++ b/TEA/BaseCases/BC_SMRCCU_Saudi_Arabia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NahyeonAn\Documents\GitHub\TeamEnv\TEA\BaseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\BaseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8367E3D4-880A-4E7A-87F1-AD1CD4D176A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CB98D-357B-452F-A189-2C57A197E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="40320" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMRCCU" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <t>Capex</t>
   </si>
@@ -422,6 +422,14 @@
   </si>
   <si>
     <t>Heating price [USD/cal]</t>
+  </si>
+  <si>
+    <t>Raw material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1272,7 +1280,7 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1559,7 +1567,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" thickBot="1"/>
-    <row r="17" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="19" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1614,7 @@
         <v>130.26437858563921</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7">
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>139.42350522410038</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7">
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1672,7 +1680,7 @@
         <v>139.42350522410038</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
@@ -1704,8 +1712,15 @@
         <f>D25*$C$33*$C$31</f>
         <v>182.43448257073322</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="F25" s="60">
+        <f>E26-F26</f>
+        <v>591.54587160457311</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
@@ -1718,9 +1733,16 @@
         <f>SUM(E18:E25)</f>
         <v>891.43839252957309</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="18" customHeight="1" thickBot="1"/>
-    <row r="31" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="F26" s="60">
+        <f>SUM(E18,E20,E22,E24)</f>
+        <v>299.89252092499999</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="18" customHeight="1" thickBot="1"/>
+    <row r="31" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B31" s="9" t="s">
         <v>28</v>
       </c>
@@ -1732,7 +1754,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:7">
       <c r="B32" s="24" t="s">
         <v>29</v>
       </c>
@@ -1776,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2382,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
